--- a/Sample_20_people/train20_data.xlsx
+++ b/Sample_20_people/train20_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,106 +477,8244 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>23400000</v>
+        <v>5135000</v>
       </c>
       <c r="D2" t="n">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>18211112</v>
+        <v>168141</v>
       </c>
       <c r="H2" t="n">
-        <v>34923</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>424</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>20000000</v>
+        <v>5135000</v>
       </c>
       <c r="D3" t="n">
-        <v>234</v>
+        <v>352</v>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>15529652</v>
+        <v>18211112</v>
       </c>
       <c r="H3" t="n">
-        <v>38627</v>
+        <v>34923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>445</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>443485350</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5</v>
+        <v>1895.5</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>105789052</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>31213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>86</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>210</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20773333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1143</v>
+      </c>
+      <c r="E6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>113617841</v>
+      </c>
+      <c r="H6" t="n">
+        <v>41348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>144</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>527</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" t="n">
+        <v>239467</v>
+      </c>
+      <c r="H7" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>247</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>210</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13270634</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>293</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>357</v>
+      </c>
+      <c r="E9" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>335</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>417</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8114254</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>96</v>
+      </c>
+      <c r="F11" t="n">
+        <v>41</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>424</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>234</v>
+      </c>
+      <c r="E12" t="n">
+        <v>89</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15529652</v>
+      </c>
+      <c r="H12" t="n">
+        <v>38627</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>445</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>96</v>
+      </c>
+      <c r="F13" t="n">
+        <v>84</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>464</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>35</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23883029</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>478</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>260000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>169</v>
+      </c>
+      <c r="E15" t="n">
+        <v>90</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5457175</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>479</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>96</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16606951</v>
+      </c>
+      <c r="H16" t="n">
+        <v>47784</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>493</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5450000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1278</v>
+      </c>
+      <c r="E17" t="n">
+        <v>82</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>605886</v>
+      </c>
+      <c r="H17" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>536</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>92</v>
+      </c>
+      <c r="E18" t="n">
+        <v>96</v>
+      </c>
+      <c r="F18" t="n">
+        <v>90</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>546</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>96</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>38619407</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>597</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>803</v>
+      </c>
+      <c r="E20" t="n">
+        <v>98</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>339260</v>
+      </c>
+      <c r="H20" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>766</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
         <v>100112100</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D21" t="n">
         <v>401.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E21" t="n">
         <v>100</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F21" t="n">
         <v>27</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G21" t="n">
         <v>731393</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H21" t="n">
         <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>875</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>583125</v>
+      </c>
+      <c r="D22" t="n">
+        <v>102</v>
+      </c>
+      <c r="E22" t="n">
+        <v>97</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2535272</v>
+      </c>
+      <c r="H22" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>877</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10024468</v>
+      </c>
+      <c r="D23" t="n">
+        <v>304</v>
+      </c>
+      <c r="E23" t="n">
+        <v>96</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2159963</v>
+      </c>
+      <c r="H23" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>889</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>197046839</v>
+      </c>
+      <c r="D24" t="n">
+        <v>998</v>
+      </c>
+      <c r="E24" t="n">
+        <v>97</v>
+      </c>
+      <c r="F24" t="n">
+        <v>27</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6113163</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>892</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>830141000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>700</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>22</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1869775</v>
+      </c>
+      <c r="H25" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>897</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>853900</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" t="n">
+        <v>37887275</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12761</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>899</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9997730</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>904</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30286650</v>
+      </c>
+      <c r="D28" t="n">
+        <v>210</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>156219</v>
+      </c>
+      <c r="H28" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>905</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>79234500</v>
+      </c>
+      <c r="D29" t="n">
+        <v>151</v>
+      </c>
+      <c r="E29" t="n">
+        <v>96</v>
+      </c>
+      <c r="F29" t="n">
+        <v>90</v>
+      </c>
+      <c r="G29" t="n">
+        <v>47311991</v>
+      </c>
+      <c r="H29" t="n">
+        <v>50964</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>909</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>170168000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>344</v>
+      </c>
+      <c r="E30" t="n">
+        <v>96</v>
+      </c>
+      <c r="F30" t="n">
+        <v>27</v>
+      </c>
+      <c r="G30" t="n">
+        <v>29357656</v>
+      </c>
+      <c r="H30" t="n">
+        <v>14472</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>912</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>250800</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>98</v>
+      </c>
+      <c r="F31" t="n">
+        <v>35</v>
+      </c>
+      <c r="G31" t="n">
+        <v>111345975</v>
+      </c>
+      <c r="H31" t="n">
+        <v>46971</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>932</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>973</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5603441</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>96</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4149918</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1411</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>78350</v>
+      </c>
+      <c r="D34" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>96</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>248818</v>
+      </c>
+      <c r="H34" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1506</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>89</v>
+      </c>
+      <c r="E35" t="n">
+        <v>96</v>
+      </c>
+      <c r="F35" t="n">
+        <v>41</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10342004</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1546</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>239</v>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7824871</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>11910000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>96</v>
+      </c>
+      <c r="F37" t="n">
+        <v>25</v>
+      </c>
+      <c r="G37" t="n">
+        <v>215077</v>
+      </c>
+      <c r="H37" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1565</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11</v>
+      </c>
+      <c r="E38" t="n">
+        <v>96</v>
+      </c>
+      <c r="F38" t="n">
+        <v>68</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11994250</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7781</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>22</v>
+      </c>
+      <c r="E39" t="n">
+        <v>96</v>
+      </c>
+      <c r="F39" t="n">
+        <v>15</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3903833</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1578</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96</v>
+      </c>
+      <c r="F40" t="n">
+        <v>90</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2935779</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1588</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96</v>
+      </c>
+      <c r="F41" t="n">
+        <v>37</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3972325</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1602</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96</v>
+      </c>
+      <c r="F42" t="n">
+        <v>11</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1627</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96</v>
+      </c>
+      <c r="F43" t="n">
+        <v>80</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2211800</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1651</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>81</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>96</v>
+      </c>
+      <c r="F45" t="n">
+        <v>87</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1660</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>96</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3734227</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1664</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>96</v>
+      </c>
+      <c r="F47" t="n">
+        <v>74</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96</v>
+      </c>
+      <c r="F48" t="n">
+        <v>12</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1696</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>41500</v>
+      </c>
+      <c r="D49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>96</v>
+      </c>
+      <c r="F49" t="n">
+        <v>56</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9072416</v>
+      </c>
+      <c r="H49" t="n">
+        <v>16633</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3668641903</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2278.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>95</v>
+      </c>
+      <c r="F50" t="n">
+        <v>19</v>
+      </c>
+      <c r="G50" t="n">
+        <v>252010171</v>
+      </c>
+      <c r="H50" t="n">
+        <v>170694</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1732</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>96</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>219512</v>
+      </c>
+      <c r="H51" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1744</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>305</v>
+      </c>
+      <c r="E52" t="n">
+        <v>96</v>
+      </c>
+      <c r="F52" t="n">
+        <v>90</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1746</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>96</v>
+      </c>
+      <c r="F53" t="n">
+        <v>56</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1769</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>251195980</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>77</v>
+      </c>
+      <c r="F54" t="n">
+        <v>75</v>
+      </c>
+      <c r="G54" t="n">
+        <v>25206785</v>
+      </c>
+      <c r="H54" t="n">
+        <v>26951</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1813</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>96</v>
+      </c>
+      <c r="F55" t="n">
+        <v>18</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3477411</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1820</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>96</v>
+      </c>
+      <c r="F56" t="n">
+        <v>22</v>
+      </c>
+      <c r="G56" t="n">
+        <v>61529538</v>
+      </c>
+      <c r="H56" t="n">
+        <v>17151</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1843</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>12</v>
+      </c>
+      <c r="E57" t="n">
+        <v>96</v>
+      </c>
+      <c r="F57" t="n">
+        <v>90</v>
+      </c>
+      <c r="G57" t="n">
+        <v>220208</v>
+      </c>
+      <c r="H57" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1865</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>97</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" t="n">
+        <v>222584</v>
+      </c>
+      <c r="H58" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1866</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>96</v>
+      </c>
+      <c r="F59" t="n">
+        <v>22</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3054324</v>
+      </c>
+      <c r="H59" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D60" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>96</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1922</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>96</v>
+      </c>
+      <c r="F61" t="n">
+        <v>19</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11</v>
+      </c>
+      <c r="E62" t="n">
+        <v>96</v>
+      </c>
+      <c r="F62" t="n">
+        <v>26</v>
+      </c>
+      <c r="G62" t="n">
+        <v>14058636</v>
+      </c>
+      <c r="H62" t="n">
+        <v>13621</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>96</v>
+      </c>
+      <c r="F63" t="n">
+        <v>32</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>20</v>
+      </c>
+      <c r="E64" t="n">
+        <v>96</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4954919</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>15</v>
+      </c>
+      <c r="E65" t="n">
+        <v>96</v>
+      </c>
+      <c r="F65" t="n">
+        <v>26</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13896058</v>
+      </c>
+      <c r="H65" t="n">
+        <v>16093</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D66" t="n">
+        <v>116</v>
+      </c>
+      <c r="E66" t="n">
+        <v>96</v>
+      </c>
+      <c r="F66" t="n">
+        <v>44</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9792220</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>96</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7731859</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>96</v>
+      </c>
+      <c r="F68" t="n">
+        <v>96</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1586758</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D69" t="n">
+        <v>19</v>
+      </c>
+      <c r="E69" t="n">
+        <v>96</v>
+      </c>
+      <c r="F69" t="n">
+        <v>21</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2491631</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>41817000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>589</v>
+      </c>
+      <c r="E70" t="n">
+        <v>98</v>
+      </c>
+      <c r="F70" t="n">
+        <v>14</v>
+      </c>
+      <c r="G70" t="n">
+        <v>46632337</v>
+      </c>
+      <c r="H70" t="n">
+        <v>22067</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D71" t="n">
+        <v>35</v>
+      </c>
+      <c r="E71" t="n">
+        <v>96</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" t="n">
+        <v>20803980</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6819</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4</v>
+      </c>
+      <c r="E72" t="n">
+        <v>96</v>
+      </c>
+      <c r="F72" t="n">
+        <v>24</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3992152</v>
+      </c>
+      <c r="H72" t="n">
+        <v>6676</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D73" t="n">
+        <v>16</v>
+      </c>
+      <c r="E73" t="n">
+        <v>82</v>
+      </c>
+      <c r="F73" t="n">
+        <v>11</v>
+      </c>
+      <c r="G73" t="n">
+        <v>45101</v>
+      </c>
+      <c r="H73" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2080</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>96</v>
+      </c>
+      <c r="F74" t="n">
+        <v>18</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1214838</v>
+      </c>
+      <c r="H74" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>96</v>
+      </c>
+      <c r="F75" t="n">
+        <v>79</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2113</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>96</v>
+      </c>
+      <c r="F76" t="n">
+        <v>30</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3729242</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2127</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>96</v>
+      </c>
+      <c r="F77" t="n">
+        <v>68</v>
+      </c>
+      <c r="G77" t="n">
+        <v>11560495</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2173</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>96</v>
+      </c>
+      <c r="F78" t="n">
+        <v>84</v>
+      </c>
+      <c r="G78" t="n">
+        <v>220208</v>
+      </c>
+      <c r="H78" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2188</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D79" t="n">
+        <v>30</v>
+      </c>
+      <c r="E79" t="n">
+        <v>96</v>
+      </c>
+      <c r="F79" t="n">
+        <v>30</v>
+      </c>
+      <c r="G79" t="n">
+        <v>18857093</v>
+      </c>
+      <c r="H79" t="n">
+        <v>24520</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>96</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="n">
+        <v>635518</v>
+      </c>
+      <c r="H80" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2208</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>510000</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>96</v>
+      </c>
+      <c r="F81" t="n">
+        <v>12</v>
+      </c>
+      <c r="G81" t="n">
+        <v>16334192</v>
+      </c>
+      <c r="H81" t="n">
+        <v>23799</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2210</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6123686</v>
+      </c>
+      <c r="D82" t="n">
+        <v>155</v>
+      </c>
+      <c r="E82" t="n">
+        <v>96</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2242</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D83" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>96</v>
+      </c>
+      <c r="F83" t="n">
+        <v>25</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2256</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>120170</v>
+      </c>
+      <c r="D84" t="n">
+        <v>320</v>
+      </c>
+      <c r="E84" t="n">
+        <v>96</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>96</v>
+      </c>
+      <c r="F85" t="n">
+        <v>34</v>
+      </c>
+      <c r="G85" t="n">
+        <v>553003</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2283</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>96</v>
+      </c>
+      <c r="F86" t="n">
+        <v>88</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1500997</v>
+      </c>
+      <c r="H86" t="n">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2342</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D87" t="n">
+        <v>15</v>
+      </c>
+      <c r="E87" t="n">
+        <v>96</v>
+      </c>
+      <c r="F87" t="n">
+        <v>25</v>
+      </c>
+      <c r="G87" t="n">
+        <v>17731454</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8639</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2344</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>96</v>
+      </c>
+      <c r="F88" t="n">
+        <v>60</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1859036</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>146</v>
+      </c>
+      <c r="E89" t="n">
+        <v>96</v>
+      </c>
+      <c r="F89" t="n">
+        <v>30</v>
+      </c>
+      <c r="G89" t="n">
+        <v>51784876</v>
+      </c>
+      <c r="H89" t="n">
+        <v>29740</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2351</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>96</v>
+      </c>
+      <c r="F90" t="n">
+        <v>75</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2353</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2924260000</v>
+      </c>
+      <c r="D91" t="n">
+        <v>956</v>
+      </c>
+      <c r="E91" t="n">
+        <v>100</v>
+      </c>
+      <c r="F91" t="n">
+        <v>45</v>
+      </c>
+      <c r="G91" t="n">
+        <v>797619</v>
+      </c>
+      <c r="H91" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2372</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>96</v>
+      </c>
+      <c r="F92" t="n">
+        <v>82</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2394</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>700000000</v>
+      </c>
+      <c r="D93" t="n">
+        <v>675</v>
+      </c>
+      <c r="E93" t="n">
+        <v>96</v>
+      </c>
+      <c r="F93" t="n">
+        <v>21</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D94" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>96</v>
+      </c>
+      <c r="F94" t="n">
+        <v>17</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2490</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>125155000</v>
+      </c>
+      <c r="D95" t="n">
+        <v>230</v>
+      </c>
+      <c r="E95" t="n">
+        <v>96</v>
+      </c>
+      <c r="F95" t="n">
+        <v>73</v>
+      </c>
+      <c r="G95" t="n">
+        <v>68291203</v>
+      </c>
+      <c r="H95" t="n">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2510</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D96" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>100</v>
+      </c>
+      <c r="F96" t="n">
+        <v>42</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2590</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>96</v>
+      </c>
+      <c r="F97" t="n">
+        <v>88</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2592</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D98" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>96</v>
+      </c>
+      <c r="F98" t="n">
+        <v>53</v>
+      </c>
+      <c r="G98" t="n">
+        <v>94818</v>
+      </c>
+      <c r="H98" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2684</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3010000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>86</v>
+      </c>
+      <c r="E99" t="n">
+        <v>96</v>
+      </c>
+      <c r="F99" t="n">
+        <v>36</v>
+      </c>
+      <c r="G99" t="n">
+        <v>15490516</v>
+      </c>
+      <c r="H99" t="n">
+        <v>21229</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2721</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>96</v>
+      </c>
+      <c r="F100" t="n">
+        <v>98</v>
+      </c>
+      <c r="G100" t="n">
+        <v>18469159</v>
+      </c>
+      <c r="H100" t="n">
+        <v>21466</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2930</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D101" t="n">
+        <v>210</v>
+      </c>
+      <c r="E101" t="n">
+        <v>96</v>
+      </c>
+      <c r="F101" t="n">
+        <v>11</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1876223744</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1220722</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2936</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D102" t="n">
+        <v>210</v>
+      </c>
+      <c r="E102" t="n">
+        <v>85</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11</v>
+      </c>
+      <c r="G102" t="n">
+        <v>9473461</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>100048</v>
+      </c>
+      <c r="D103" t="n">
+        <v>206</v>
+      </c>
+      <c r="E103" t="n">
+        <v>80</v>
+      </c>
+      <c r="F103" t="n">
+        <v>49</v>
+      </c>
+      <c r="G103" t="n">
+        <v>57646</v>
+      </c>
+      <c r="H103" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3049</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>33911220</v>
+      </c>
+      <c r="D104" t="n">
+        <v>208</v>
+      </c>
+      <c r="E104" t="n">
+        <v>97</v>
+      </c>
+      <c r="F104" t="n">
+        <v>14</v>
+      </c>
+      <c r="G104" t="n">
+        <v>33258998</v>
+      </c>
+      <c r="H104" t="n">
+        <v>15112</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3063</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1286840000</v>
+      </c>
+      <c r="D105" t="n">
+        <v>210</v>
+      </c>
+      <c r="E105" t="n">
+        <v>100</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>69247290</v>
+      </c>
+      <c r="D106" t="n">
+        <v>75</v>
+      </c>
+      <c r="E106" t="n">
+        <v>96</v>
+      </c>
+      <c r="F106" t="n">
+        <v>44</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3068</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>8207800</v>
+      </c>
+      <c r="D107" t="n">
+        <v>413</v>
+      </c>
+      <c r="E107" t="n">
+        <v>100</v>
+      </c>
+      <c r="F107" t="n">
+        <v>13</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1472616</v>
+      </c>
+      <c r="H107" t="n">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3070</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D108" t="n">
+        <v>69</v>
+      </c>
+      <c r="E108" t="n">
+        <v>99</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9</v>
+      </c>
+      <c r="G108" t="n">
+        <v>482898</v>
+      </c>
+      <c r="H108" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3071</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>416678000</v>
+      </c>
+      <c r="D109" t="n">
+        <v>210</v>
+      </c>
+      <c r="E109" t="n">
+        <v>100</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5226827196</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1130757</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3072</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1710</v>
+      </c>
+      <c r="E110" t="n">
+        <v>88</v>
+      </c>
+      <c r="F110" t="n">
+        <v>11</v>
+      </c>
+      <c r="G110" t="n">
+        <v>423601348</v>
+      </c>
+      <c r="H110" t="n">
+        <v>266640</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3087</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>265906</v>
+      </c>
+      <c r="D111" t="n">
+        <v>970</v>
+      </c>
+      <c r="E111" t="n">
+        <v>99</v>
+      </c>
+      <c r="F111" t="n">
+        <v>12</v>
+      </c>
+      <c r="G111" t="n">
+        <v>550338</v>
+      </c>
+      <c r="H111" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3091</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>622635</v>
+      </c>
+      <c r="D112" t="n">
+        <v>530</v>
+      </c>
+      <c r="E112" t="n">
+        <v>90</v>
+      </c>
+      <c r="F112" t="n">
+        <v>32</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3112169</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3098</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1200000000</v>
+      </c>
+      <c r="D113" t="n">
+        <v>403</v>
+      </c>
+      <c r="E113" t="n">
+        <v>96</v>
+      </c>
+      <c r="F113" t="n">
+        <v>39</v>
+      </c>
+      <c r="G113" t="n">
+        <v>109659447</v>
+      </c>
+      <c r="H113" t="n">
+        <v>27217</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>3109</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D114" t="n">
+        <v>205</v>
+      </c>
+      <c r="E114" t="n">
+        <v>96</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1783440</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>3113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1464.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>91</v>
+      </c>
+      <c r="F115" t="n">
+        <v>30</v>
+      </c>
+      <c r="G115" t="n">
+        <v>8588443</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4961</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>3127</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>17750</v>
+      </c>
+      <c r="D116" t="n">
+        <v>210</v>
+      </c>
+      <c r="E116" t="n">
+        <v>96</v>
+      </c>
+      <c r="F116" t="n">
+        <v>23</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3135</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D117" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>96</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13</v>
+      </c>
+      <c r="G117" t="n">
+        <v>9455722</v>
+      </c>
+      <c r="H117" t="n">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>3143</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>77000000</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3779</v>
+      </c>
+      <c r="E118" t="n">
+        <v>85</v>
+      </c>
+      <c r="F118" t="n">
+        <v>12</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3147</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2008436800</v>
+      </c>
+      <c r="D119" t="n">
+        <v>210</v>
+      </c>
+      <c r="E119" t="n">
+        <v>96</v>
+      </c>
+      <c r="F119" t="n">
+        <v>41</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>3165</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2711227</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>96</v>
+      </c>
+      <c r="F120" t="n">
+        <v>12</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>3245</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D121" t="n">
+        <v>167</v>
+      </c>
+      <c r="E121" t="n">
+        <v>96</v>
+      </c>
+      <c r="F121" t="n">
+        <v>17</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3335</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>210</v>
+      </c>
+      <c r="E122" t="n">
+        <v>96</v>
+      </c>
+      <c r="F122" t="n">
+        <v>11</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3539</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>34500000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>210</v>
+      </c>
+      <c r="E123" t="n">
+        <v>17</v>
+      </c>
+      <c r="F123" t="n">
+        <v>26</v>
+      </c>
+      <c r="G123" t="n">
+        <v>20633615</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3591</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>97180000</v>
+      </c>
+      <c r="D124" t="n">
+        <v>96</v>
+      </c>
+      <c r="E124" t="n">
+        <v>84</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15</v>
+      </c>
+      <c r="G124" t="n">
+        <v>58049833</v>
+      </c>
+      <c r="H124" t="n">
+        <v>131656</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3603</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1666667</v>
+      </c>
+      <c r="D125" t="n">
+        <v>67</v>
+      </c>
+      <c r="E125" t="n">
+        <v>96</v>
+      </c>
+      <c r="F125" t="n">
+        <v>10</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2684243</v>
+      </c>
+      <c r="H125" t="n">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>3604</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1455000</v>
+      </c>
+      <c r="D126" t="n">
+        <v>24</v>
+      </c>
+      <c r="E126" t="n">
+        <v>96</v>
+      </c>
+      <c r="F126" t="n">
+        <v>12</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1341769</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>3614</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>96</v>
+      </c>
+      <c r="F127" t="n">
+        <v>22</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5331513</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>3628</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D128" t="n">
+        <v>196</v>
+      </c>
+      <c r="E128" t="n">
+        <v>98</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6</v>
+      </c>
+      <c r="G128" t="n">
+        <v>10575074</v>
+      </c>
+      <c r="H128" t="n">
+        <v>12391</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>3655</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>96</v>
+      </c>
+      <c r="F129" t="n">
+        <v>60</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>3702</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D130" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>96</v>
+      </c>
+      <c r="F130" t="n">
+        <v>45</v>
+      </c>
+      <c r="G130" t="n">
+        <v>40348</v>
+      </c>
+      <c r="H130" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>3719</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4090016000</v>
+      </c>
+      <c r="D131" t="n">
+        <v>210</v>
+      </c>
+      <c r="E131" t="n">
+        <v>99</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9</v>
+      </c>
+      <c r="G131" t="n">
+        <v>114122</v>
+      </c>
+      <c r="H131" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>3761</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>96</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>3786</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D133" t="n">
+        <v>37</v>
+      </c>
+      <c r="E133" t="n">
+        <v>96</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2164602</v>
+      </c>
+      <c r="H133" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>3794</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>305</v>
+      </c>
+      <c r="E134" t="n">
+        <v>96</v>
+      </c>
+      <c r="F134" t="n">
+        <v>33</v>
+      </c>
+      <c r="G134" t="n">
+        <v>9483068</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9023</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>3798</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D135" t="n">
+        <v>202</v>
+      </c>
+      <c r="E135" t="n">
+        <v>96</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9</v>
+      </c>
+      <c r="G135" t="n">
+        <v>19960</v>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>3799</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="D136" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>88</v>
+      </c>
+      <c r="F136" t="n">
+        <v>30</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3049209</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>3811</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>89</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>3813</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>22321</v>
+      </c>
+      <c r="D138" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>99</v>
+      </c>
+      <c r="F138" t="n">
+        <v>20</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>3824</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D139" t="n">
+        <v>7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>96</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>3860</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" t="n">
+        <v>96</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8</v>
+      </c>
+      <c r="G140" t="n">
+        <v>198528</v>
+      </c>
+      <c r="H140" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>3873</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>100697072</v>
+      </c>
+      <c r="D141" t="n">
+        <v>206</v>
+      </c>
+      <c r="E141" t="n">
+        <v>96</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G141" t="n">
+        <v>11728189</v>
+      </c>
+      <c r="H141" t="n">
+        <v>13021</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>3900</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D142" t="n">
+        <v>63</v>
+      </c>
+      <c r="E142" t="n">
+        <v>96</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>16336890</v>
+      </c>
+      <c r="H142" t="n">
+        <v>9735</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>3915</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D143" t="n">
+        <v>52</v>
+      </c>
+      <c r="E143" t="n">
+        <v>96</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>3919</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D144" t="n">
+        <v>54</v>
+      </c>
+      <c r="E144" t="n">
+        <v>96</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>96</v>
+      </c>
+      <c r="F145" t="n">
+        <v>83</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>3930</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D146" t="n">
+        <v>14</v>
+      </c>
+      <c r="E146" t="n">
+        <v>96</v>
+      </c>
+      <c r="F146" t="n">
+        <v>37</v>
+      </c>
+      <c r="G146" t="n">
+        <v>526274</v>
+      </c>
+      <c r="H146" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>144026000</v>
+      </c>
+      <c r="D147" t="n">
+        <v>103</v>
+      </c>
+      <c r="E147" t="n">
+        <v>96</v>
+      </c>
+      <c r="F147" t="n">
+        <v>31</v>
+      </c>
+      <c r="G147" t="n">
+        <v>12577300</v>
+      </c>
+      <c r="H147" t="n">
+        <v>22668</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>3950</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4812955</v>
+      </c>
+      <c r="D148" t="n">
+        <v>210</v>
+      </c>
+      <c r="E148" t="n">
+        <v>93</v>
+      </c>
+      <c r="F148" t="n">
+        <v>9</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5284345366</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3024472</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>3954</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D149" t="n">
+        <v>222</v>
+      </c>
+      <c r="E149" t="n">
+        <v>71</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1090692</v>
+      </c>
+      <c r="H149" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>3957</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>32300</v>
+      </c>
+      <c r="D150" t="n">
+        <v>67</v>
+      </c>
+      <c r="E150" t="n">
+        <v>96</v>
+      </c>
+      <c r="F150" t="n">
+        <v>45</v>
+      </c>
+      <c r="G150" t="n">
+        <v>518501</v>
+      </c>
+      <c r="H150" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>3962</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12</v>
+      </c>
+      <c r="E151" t="n">
+        <v>96</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7</v>
+      </c>
+      <c r="G151" t="n">
+        <v>926639</v>
+      </c>
+      <c r="H151" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>4019</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>259160420</v>
+      </c>
+      <c r="D152" t="n">
+        <v>156</v>
+      </c>
+      <c r="E152" t="n">
+        <v>96</v>
+      </c>
+      <c r="F152" t="n">
+        <v>90</v>
+      </c>
+      <c r="G152" t="n">
+        <v>12753849</v>
+      </c>
+      <c r="H152" t="n">
+        <v>9151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>4059</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D153" t="n">
+        <v>8</v>
+      </c>
+      <c r="E153" t="n">
+        <v>96</v>
+      </c>
+      <c r="F153" t="n">
+        <v>54</v>
+      </c>
+      <c r="G153" t="n">
+        <v>508311</v>
+      </c>
+      <c r="H153" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>4065</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>550000</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>96</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5287415</v>
+      </c>
+      <c r="H154" t="n">
+        <v>7810</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>4068</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>96</v>
+      </c>
+      <c r="F155" t="n">
+        <v>83</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>4080</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1251500</v>
+      </c>
+      <c r="D156" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>96</v>
+      </c>
+      <c r="F156" t="n">
+        <v>55</v>
+      </c>
+      <c r="G156" t="n">
+        <v>3004562</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>4093</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4171000</v>
+      </c>
+      <c r="D157" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>96</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="n">
+        <v>6930466</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>4094</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>96</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1031947</v>
+      </c>
+      <c r="H158" t="n">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>4102</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D159" t="n">
+        <v>19</v>
+      </c>
+      <c r="E159" t="n">
+        <v>96</v>
+      </c>
+      <c r="F159" t="n">
+        <v>15</v>
+      </c>
+      <c r="G159" t="n">
+        <v>15147816</v>
+      </c>
+      <c r="H159" t="n">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>4109</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>20110000</v>
+      </c>
+      <c r="D160" t="n">
+        <v>195</v>
+      </c>
+      <c r="E160" t="n">
+        <v>97</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>4127</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>96</v>
+      </c>
+      <c r="F161" t="n">
+        <v>13</v>
+      </c>
+      <c r="G161" t="n">
+        <v>10825604</v>
+      </c>
+      <c r="H161" t="n">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>4129</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>49600000</v>
+      </c>
+      <c r="D162" t="n">
+        <v>482</v>
+      </c>
+      <c r="E162" t="n">
+        <v>96</v>
+      </c>
+      <c r="F162" t="n">
+        <v>12</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4531274</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>4132</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D163" t="n">
+        <v>17</v>
+      </c>
+      <c r="E163" t="n">
+        <v>96</v>
+      </c>
+      <c r="F163" t="n">
+        <v>37</v>
+      </c>
+      <c r="G163" t="n">
+        <v>3446260</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>4172</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>96</v>
+      </c>
+      <c r="F164" t="n">
+        <v>23</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>4199</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>96</v>
+      </c>
+      <c r="F165" t="n">
+        <v>95</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>4218</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="D166" t="n">
+        <v>75</v>
+      </c>
+      <c r="E166" t="n">
+        <v>96</v>
+      </c>
+      <c r="F166" t="n">
+        <v>85</v>
+      </c>
+      <c r="G166" t="n">
+        <v>60957221</v>
+      </c>
+      <c r="H166" t="n">
+        <v>18763</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>4237</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>10500</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>96</v>
+      </c>
+      <c r="F167" t="n">
+        <v>13</v>
+      </c>
+      <c r="G167" t="n">
+        <v>3117204</v>
+      </c>
+      <c r="H167" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>4259</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="D168" t="n">
+        <v>210</v>
+      </c>
+      <c r="E168" t="n">
+        <v>66</v>
+      </c>
+      <c r="F168" t="n">
+        <v>18</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>4266</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D169" t="n">
+        <v>47</v>
+      </c>
+      <c r="E169" t="n">
+        <v>96</v>
+      </c>
+      <c r="F169" t="n">
+        <v>14</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1331075</v>
+      </c>
+      <c r="H169" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>4275</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D170" t="n">
+        <v>19</v>
+      </c>
+      <c r="E170" t="n">
+        <v>96</v>
+      </c>
+      <c r="F170" t="n">
+        <v>13</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>4300</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D171" t="n">
+        <v>75</v>
+      </c>
+      <c r="E171" t="n">
+        <v>96</v>
+      </c>
+      <c r="F171" t="n">
+        <v>26</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>4301</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>182830000</v>
+      </c>
+      <c r="D172" t="n">
+        <v>481</v>
+      </c>
+      <c r="E172" t="n">
+        <v>94</v>
+      </c>
+      <c r="F172" t="n">
+        <v>27</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4278470</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4303</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D173" t="n">
+        <v>22</v>
+      </c>
+      <c r="E173" t="n">
+        <v>96</v>
+      </c>
+      <c r="F173" t="n">
+        <v>14</v>
+      </c>
+      <c r="G173" t="n">
+        <v>48446</v>
+      </c>
+      <c r="H173" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4318</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>96</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="n">
+        <v>76362</v>
+      </c>
+      <c r="H174" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>4320</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D175" t="n">
+        <v>40</v>
+      </c>
+      <c r="E175" t="n">
+        <v>96</v>
+      </c>
+      <c r="F175" t="n">
+        <v>11</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1049022</v>
+      </c>
+      <c r="H175" t="n">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>4337</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D176" t="n">
+        <v>148</v>
+      </c>
+      <c r="E176" t="n">
+        <v>96</v>
+      </c>
+      <c r="F176" t="n">
+        <v>36</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>4358</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6</v>
+      </c>
+      <c r="E177" t="n">
+        <v>96</v>
+      </c>
+      <c r="F177" t="n">
+        <v>90</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5098735</v>
+      </c>
+      <c r="H177" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>4363</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D178" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>83</v>
+      </c>
+      <c r="F178" t="n">
+        <v>9</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2498554</v>
+      </c>
+      <c r="H178" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>4411</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>96</v>
+      </c>
+      <c r="F179" t="n">
+        <v>74</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1164716</v>
+      </c>
+      <c r="H179" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>4468</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>192</v>
+      </c>
+      <c r="E180" t="n">
+        <v>96</v>
+      </c>
+      <c r="F180" t="n">
+        <v>12</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1193892</v>
+      </c>
+      <c r="H180" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>4495</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9</v>
+      </c>
+      <c r="E181" t="n">
+        <v>96</v>
+      </c>
+      <c r="F181" t="n">
+        <v>46</v>
+      </c>
+      <c r="G181" t="n">
+        <v>488878</v>
+      </c>
+      <c r="H181" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D182" t="n">
+        <v>248</v>
+      </c>
+      <c r="E182" t="n">
+        <v>61</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23</v>
+      </c>
+      <c r="G182" t="n">
+        <v>31411322</v>
+      </c>
+      <c r="H182" t="n">
+        <v>20791</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>4506</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D183" t="n">
+        <v>43</v>
+      </c>
+      <c r="E183" t="n">
+        <v>96</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5</v>
+      </c>
+      <c r="G183" t="n">
+        <v>614700</v>
+      </c>
+      <c r="H183" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>4661</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D184" t="n">
+        <v>48</v>
+      </c>
+      <c r="E184" t="n">
+        <v>96</v>
+      </c>
+      <c r="F184" t="n">
+        <v>14</v>
+      </c>
+      <c r="G184" t="n">
+        <v>56439389</v>
+      </c>
+      <c r="H184" t="n">
+        <v>22480</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>4664</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D185" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>96</v>
+      </c>
+      <c r="F185" t="n">
+        <v>24</v>
+      </c>
+      <c r="G185" t="n">
+        <v>324998</v>
+      </c>
+      <c r="H185" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>4686</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1005000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>88</v>
+      </c>
+      <c r="E186" t="n">
+        <v>100</v>
+      </c>
+      <c r="F186" t="n">
+        <v>7</v>
+      </c>
+      <c r="G186" t="n">
+        <v>11879483</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>4720</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>96</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>4725</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3</v>
+      </c>
+      <c r="E188" t="n">
+        <v>96</v>
+      </c>
+      <c r="F188" t="n">
+        <v>13</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>4805</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D189" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>96</v>
+      </c>
+      <c r="F189" t="n">
+        <v>8</v>
+      </c>
+      <c r="G189" t="n">
+        <v>150472</v>
+      </c>
+      <c r="H189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>4832</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D190" t="n">
+        <v>16</v>
+      </c>
+      <c r="E190" t="n">
+        <v>96</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1842059</v>
+      </c>
+      <c r="H190" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>4877</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1597015</v>
+      </c>
+      <c r="D191" t="n">
+        <v>210</v>
+      </c>
+      <c r="E191" t="n">
+        <v>87</v>
+      </c>
+      <c r="F191" t="n">
+        <v>13</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>4924</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D192" t="n">
+        <v>210</v>
+      </c>
+      <c r="E192" t="n">
+        <v>96</v>
+      </c>
+      <c r="F192" t="n">
+        <v>11</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4925</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D193" t="n">
+        <v>210</v>
+      </c>
+      <c r="E193" t="n">
+        <v>96</v>
+      </c>
+      <c r="F193" t="n">
+        <v>11</v>
+      </c>
+      <c r="G193" t="n">
+        <v>17174489</v>
+      </c>
+      <c r="H193" t="n">
+        <v>9673</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>4956</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D194" t="n">
+        <v>210</v>
+      </c>
+      <c r="E194" t="n">
+        <v>99</v>
+      </c>
+      <c r="F194" t="n">
+        <v>11</v>
+      </c>
+      <c r="G194" t="n">
+        <v>8366563</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>4967</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D195" t="n">
+        <v>210</v>
+      </c>
+      <c r="E195" t="n">
+        <v>96</v>
+      </c>
+      <c r="F195" t="n">
+        <v>11</v>
+      </c>
+      <c r="G195" t="n">
+        <v>11330377</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>4979</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>150306695</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2184</v>
+      </c>
+      <c r="E196" t="n">
+        <v>82</v>
+      </c>
+      <c r="F196" t="n">
+        <v>15</v>
+      </c>
+      <c r="G196" t="n">
+        <v>42191616</v>
+      </c>
+      <c r="H196" t="n">
+        <v>17932</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>4982</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D197" t="n">
+        <v>224</v>
+      </c>
+      <c r="E197" t="n">
+        <v>75</v>
+      </c>
+      <c r="F197" t="n">
+        <v>9</v>
+      </c>
+      <c r="G197" t="n">
+        <v>917591</v>
+      </c>
+      <c r="H197" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>5087</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D198" t="n">
+        <v>138</v>
+      </c>
+      <c r="E198" t="n">
+        <v>96</v>
+      </c>
+      <c r="F198" t="n">
+        <v>8</v>
+      </c>
+      <c r="G198" t="n">
+        <v>22746057</v>
+      </c>
+      <c r="H198" t="n">
+        <v>12641</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>5132</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>96</v>
+      </c>
+      <c r="F199" t="n">
+        <v>46</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1287951</v>
+      </c>
+      <c r="H199" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>5159</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>6945802</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5311.5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>100</v>
+      </c>
+      <c r="F200" t="n">
+        <v>8</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>5184</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5859625</v>
+      </c>
+      <c r="D201" t="n">
+        <v>42</v>
+      </c>
+      <c r="E201" t="n">
+        <v>96</v>
+      </c>
+      <c r="F201" t="n">
+        <v>18</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2470395</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>5199</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3</v>
+      </c>
+      <c r="E202" t="n">
+        <v>96</v>
+      </c>
+      <c r="F202" t="n">
+        <v>95</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>5204</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D203" t="n">
+        <v>93</v>
+      </c>
+      <c r="E203" t="n">
+        <v>96</v>
+      </c>
+      <c r="F203" t="n">
+        <v>37</v>
+      </c>
+      <c r="G203" t="n">
+        <v>36284142</v>
+      </c>
+      <c r="H203" t="n">
+        <v>20465</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>5258</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>80896200</v>
+      </c>
+      <c r="D204" t="n">
+        <v>77</v>
+      </c>
+      <c r="E204" t="n">
+        <v>96</v>
+      </c>
+      <c r="F204" t="n">
+        <v>5</v>
+      </c>
+      <c r="G204" t="n">
+        <v>4115181</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>5294</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1084050</v>
+      </c>
+      <c r="D205" t="n">
+        <v>462</v>
+      </c>
+      <c r="E205" t="n">
+        <v>92</v>
+      </c>
+      <c r="F205" t="n">
+        <v>54</v>
+      </c>
+      <c r="G205" t="n">
+        <v>5598115</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>5305</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>76149000</v>
+      </c>
+      <c r="D206" t="n">
+        <v>911</v>
+      </c>
+      <c r="E206" t="n">
+        <v>80</v>
+      </c>
+      <c r="F206" t="n">
+        <v>20</v>
+      </c>
+      <c r="G206" t="n">
+        <v>614425002</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1234168</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>5641</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D207" t="n">
+        <v>211</v>
+      </c>
+      <c r="E207" t="n">
+        <v>96</v>
+      </c>
+      <c r="F207" t="n">
+        <v>28</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1172741</v>
+      </c>
+      <c r="H207" t="n">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>5677</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D208" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>96</v>
+      </c>
+      <c r="F208" t="n">
+        <v>19</v>
+      </c>
+      <c r="G208" t="n">
+        <v>45625376</v>
+      </c>
+      <c r="H208" t="n">
+        <v>35849</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>5810</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D209" t="n">
+        <v>703.5</v>
+      </c>
+      <c r="E209" t="n">
+        <v>97</v>
+      </c>
+      <c r="F209" t="n">
+        <v>10</v>
+      </c>
+      <c r="G209" t="n">
+        <v>6359842</v>
+      </c>
+      <c r="H209" t="n">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>5866</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>12603907</v>
+      </c>
+      <c r="D210" t="n">
+        <v>289</v>
+      </c>
+      <c r="E210" t="n">
+        <v>96</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1023638</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>6088</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D211" t="n">
+        <v>151</v>
+      </c>
+      <c r="E211" t="n">
+        <v>96</v>
+      </c>
+      <c r="F211" t="n">
+        <v>84</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>6258</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>243910</v>
+      </c>
+      <c r="D212" t="n">
+        <v>86</v>
+      </c>
+      <c r="E212" t="n">
+        <v>96</v>
+      </c>
+      <c r="F212" t="n">
+        <v>6</v>
+      </c>
+      <c r="G212" t="n">
+        <v>8605402</v>
+      </c>
+      <c r="H212" t="n">
+        <v>6614</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>6259</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D213" t="n">
+        <v>124</v>
+      </c>
+      <c r="E213" t="n">
+        <v>96</v>
+      </c>
+      <c r="F213" t="n">
+        <v>41</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>6278</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>767942555</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1131</v>
+      </c>
+      <c r="E214" t="n">
+        <v>86</v>
+      </c>
+      <c r="F214" t="n">
+        <v>13</v>
+      </c>
+      <c r="G214" t="n">
+        <v>407030408</v>
+      </c>
+      <c r="H214" t="n">
+        <v>216323</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>6287</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>177100000</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1253.5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>93</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27</v>
+      </c>
+      <c r="G215" t="n">
+        <v>5082728</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>6329</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>372752840</v>
+      </c>
+      <c r="D216" t="n">
+        <v>270</v>
+      </c>
+      <c r="E216" t="n">
+        <v>96</v>
+      </c>
+      <c r="F216" t="n">
+        <v>85</v>
+      </c>
+      <c r="G216" t="n">
+        <v>29458136</v>
+      </c>
+      <c r="H216" t="n">
+        <v>20988</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>6336</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D217" t="n">
+        <v>210</v>
+      </c>
+      <c r="E217" t="n">
+        <v>96</v>
+      </c>
+      <c r="F217" t="n">
+        <v>13</v>
+      </c>
+      <c r="G217" t="n">
+        <v>239764</v>
+      </c>
+      <c r="H217" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>6344</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5659380</v>
+      </c>
+      <c r="D218" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="E218" t="n">
+        <v>96</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5</v>
+      </c>
+      <c r="G218" t="n">
+        <v>12996032</v>
+      </c>
+      <c r="H218" t="n">
+        <v>23590</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>6917</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>91700000</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E219" t="n">
+        <v>96</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28</v>
+      </c>
+      <c r="G219" t="n">
+        <v>11659061</v>
+      </c>
+      <c r="H219" t="n">
+        <v>9088</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>6955</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>11853000</v>
+      </c>
+      <c r="D220" t="n">
+        <v>80</v>
+      </c>
+      <c r="E220" t="n">
+        <v>96</v>
+      </c>
+      <c r="F220" t="n">
+        <v>16</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2554892</v>
+      </c>
+      <c r="H220" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>6985</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>318714368</v>
+      </c>
+      <c r="D221" t="n">
+        <v>99</v>
+      </c>
+      <c r="E221" t="n">
+        <v>96</v>
+      </c>
+      <c r="F221" t="n">
+        <v>13</v>
+      </c>
+      <c r="G221" t="n">
+        <v>4584604</v>
+      </c>
+      <c r="H221" t="n">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>7042</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D222" t="n">
+        <v>12</v>
+      </c>
+      <c r="E222" t="n">
+        <v>96</v>
+      </c>
+      <c r="F222" t="n">
+        <v>14</v>
+      </c>
+      <c r="G222" t="n">
+        <v>3168441</v>
+      </c>
+      <c r="H222" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>7070</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D223" t="n">
+        <v>14</v>
+      </c>
+      <c r="E223" t="n">
+        <v>96</v>
+      </c>
+      <c r="F223" t="n">
+        <v>19</v>
+      </c>
+      <c r="G223" t="n">
+        <v>55203508</v>
+      </c>
+      <c r="H223" t="n">
+        <v>15842</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>7071</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>14000</v>
+      </c>
+      <c r="D224" t="n">
+        <v>143</v>
+      </c>
+      <c r="E224" t="n">
+        <v>100</v>
+      </c>
+      <c r="F224" t="n">
+        <v>8</v>
+      </c>
+      <c r="G224" t="n">
+        <v>14551074</v>
+      </c>
+      <c r="H224" t="n">
+        <v>6272</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>7099</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D225" t="n">
+        <v>6</v>
+      </c>
+      <c r="E225" t="n">
+        <v>96</v>
+      </c>
+      <c r="F225" t="n">
+        <v>19</v>
+      </c>
+      <c r="G225" t="n">
+        <v>25514994</v>
+      </c>
+      <c r="H225" t="n">
+        <v>7407</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>7162</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D226" t="n">
+        <v>101</v>
+      </c>
+      <c r="E226" t="n">
+        <v>96</v>
+      </c>
+      <c r="F226" t="n">
+        <v>38</v>
+      </c>
+      <c r="G226" t="n">
+        <v>118510</v>
+      </c>
+      <c r="H226" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>7184</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>18030000</v>
+      </c>
+      <c r="D227" t="n">
+        <v>28</v>
+      </c>
+      <c r="E227" t="n">
+        <v>96</v>
+      </c>
+      <c r="F227" t="n">
+        <v>20</v>
+      </c>
+      <c r="G227" t="n">
+        <v>246298</v>
+      </c>
+      <c r="H227" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>7185</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D228" t="n">
+        <v>5</v>
+      </c>
+      <c r="E228" t="n">
+        <v>96</v>
+      </c>
+      <c r="F228" t="n">
+        <v>10</v>
+      </c>
+      <c r="G228" t="n">
+        <v>6645719</v>
+      </c>
+      <c r="H228" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>7214</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D229" t="n">
+        <v>132</v>
+      </c>
+      <c r="E229" t="n">
+        <v>97</v>
+      </c>
+      <c r="F229" t="n">
+        <v>7</v>
+      </c>
+      <c r="G229" t="n">
+        <v>40249092</v>
+      </c>
+      <c r="H229" t="n">
+        <v>18603</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>7228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>562886008</v>
+      </c>
+      <c r="D230" t="n">
+        <v>380</v>
+      </c>
+      <c r="E230" t="n">
+        <v>96</v>
+      </c>
+      <c r="F230" t="n">
+        <v>34</v>
+      </c>
+      <c r="G230" t="n">
+        <v>18894202</v>
+      </c>
+      <c r="H230" t="n">
+        <v>14699</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>7278</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D231" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>96</v>
+      </c>
+      <c r="F231" t="n">
+        <v>10</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>7284</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>15010000</v>
+      </c>
+      <c r="D232" t="n">
+        <v>67</v>
+      </c>
+      <c r="E232" t="n">
+        <v>96</v>
+      </c>
+      <c r="F232" t="n">
+        <v>28</v>
+      </c>
+      <c r="G232" t="n">
+        <v>395400</v>
+      </c>
+      <c r="H232" t="n">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>7339</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D233" t="n">
+        <v>151</v>
+      </c>
+      <c r="E233" t="n">
+        <v>96</v>
+      </c>
+      <c r="F233" t="n">
+        <v>14</v>
+      </c>
+      <c r="G233" t="n">
+        <v>308558</v>
+      </c>
+      <c r="H233" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>7347</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D234" t="n">
+        <v>62</v>
+      </c>
+      <c r="E234" t="n">
+        <v>96</v>
+      </c>
+      <c r="F234" t="n">
+        <v>54</v>
+      </c>
+      <c r="G234" t="n">
+        <v>5805877</v>
+      </c>
+      <c r="H234" t="n">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>7392</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E235" t="n">
+        <v>96</v>
+      </c>
+      <c r="F235" t="n">
+        <v>9</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>7406</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D236" t="n">
+        <v>14</v>
+      </c>
+      <c r="E236" t="n">
+        <v>96</v>
+      </c>
+      <c r="F236" t="n">
+        <v>31</v>
+      </c>
+      <c r="G236" t="n">
+        <v>2895156</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>7437</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>6463636</v>
+      </c>
+      <c r="D237" t="n">
+        <v>38</v>
+      </c>
+      <c r="E237" t="n">
+        <v>29</v>
+      </c>
+      <c r="F237" t="n">
+        <v>90</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1543969</v>
+      </c>
+      <c r="H237" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>7442</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>85430</v>
+      </c>
+      <c r="D238" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E238" t="n">
+        <v>96</v>
+      </c>
+      <c r="F238" t="n">
+        <v>90</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>7529</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D239" t="n">
+        <v>36</v>
+      </c>
+      <c r="E239" t="n">
+        <v>96</v>
+      </c>
+      <c r="F239" t="n">
+        <v>8</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>7536</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E240" t="n">
+        <v>96</v>
+      </c>
+      <c r="F240" t="n">
+        <v>12</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>7609</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3</v>
+      </c>
+      <c r="E241" t="n">
+        <v>96</v>
+      </c>
+      <c r="F241" t="n">
+        <v>10</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>7611</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D242" t="n">
+        <v>141</v>
+      </c>
+      <c r="E242" t="n">
+        <v>96</v>
+      </c>
+      <c r="F242" t="n">
+        <v>66</v>
+      </c>
+      <c r="G242" t="n">
+        <v>45515642</v>
+      </c>
+      <c r="H242" t="n">
+        <v>24122</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>7657</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D243" t="n">
+        <v>40</v>
+      </c>
+      <c r="E243" t="n">
+        <v>96</v>
+      </c>
+      <c r="F243" t="n">
+        <v>75</v>
+      </c>
+      <c r="G243" t="n">
+        <v>783604</v>
+      </c>
+      <c r="H243" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>7663</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D244" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E244" t="n">
+        <v>96</v>
+      </c>
+      <c r="F244" t="n">
+        <v>42</v>
+      </c>
+      <c r="G244" t="n">
+        <v>2148534</v>
+      </c>
+      <c r="H244" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>7728</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D245" t="n">
+        <v>6</v>
+      </c>
+      <c r="E245" t="n">
+        <v>96</v>
+      </c>
+      <c r="F245" t="n">
+        <v>19</v>
+      </c>
+      <c r="G245" t="n">
+        <v>57757</v>
+      </c>
+      <c r="H245" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>7795</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D246" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E246" t="n">
+        <v>96</v>
+      </c>
+      <c r="F246" t="n">
+        <v>9</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>7862</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D247" t="n">
+        <v>6</v>
+      </c>
+      <c r="E247" t="n">
+        <v>96</v>
+      </c>
+      <c r="F247" t="n">
+        <v>42</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>7944</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3</v>
+      </c>
+      <c r="E248" t="n">
+        <v>96</v>
+      </c>
+      <c r="F248" t="n">
+        <v>24</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>8030</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D249" t="n">
+        <v>24</v>
+      </c>
+      <c r="E249" t="n">
+        <v>96</v>
+      </c>
+      <c r="F249" t="n">
+        <v>20</v>
+      </c>
+      <c r="G249" t="n">
+        <v>7053713</v>
+      </c>
+      <c r="H249" t="n">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>8048</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="D250" t="n">
+        <v>68</v>
+      </c>
+      <c r="E250" t="n">
+        <v>96</v>
+      </c>
+      <c r="F250" t="n">
+        <v>68</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>8062</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D251" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E251" t="n">
+        <v>96</v>
+      </c>
+      <c r="F251" t="n">
+        <v>20</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>8108</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E252" t="n">
+        <v>96</v>
+      </c>
+      <c r="F252" t="n">
+        <v>13</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1388663</v>
+      </c>
+      <c r="H252" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>8128</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D253" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E253" t="n">
+        <v>96</v>
+      </c>
+      <c r="F253" t="n">
+        <v>46</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>8246</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="D254" t="n">
+        <v>536.5</v>
+      </c>
+      <c r="E254" t="n">
+        <v>96</v>
+      </c>
+      <c r="F254" t="n">
+        <v>8</v>
+      </c>
+      <c r="G254" t="n">
+        <v>357522</v>
+      </c>
+      <c r="H254" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>8581</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1904710000</v>
+      </c>
+      <c r="D255" t="n">
+        <v>210</v>
+      </c>
+      <c r="E255" t="n">
+        <v>95</v>
+      </c>
+      <c r="F255" t="n">
+        <v>8</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>8654</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D256" t="n">
+        <v>210</v>
+      </c>
+      <c r="E256" t="n">
+        <v>96</v>
+      </c>
+      <c r="F256" t="n">
+        <v>11</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>8680</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D257" t="n">
+        <v>210</v>
+      </c>
+      <c r="E257" t="n">
+        <v>95</v>
+      </c>
+      <c r="F257" t="n">
+        <v>11</v>
+      </c>
+      <c r="G257" t="n">
+        <v>222308</v>
+      </c>
+      <c r="H257" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>8712</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>84680</v>
+      </c>
+      <c r="D258" t="n">
+        <v>153</v>
+      </c>
+      <c r="E258" t="n">
+        <v>96</v>
+      </c>
+      <c r="F258" t="n">
+        <v>8</v>
+      </c>
+      <c r="G258" t="n">
+        <v>141951</v>
+      </c>
+      <c r="H258" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>8715</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="D259" t="n">
+        <v>210</v>
+      </c>
+      <c r="E259" t="n">
+        <v>100</v>
+      </c>
+      <c r="F259" t="n">
+        <v>15</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>8718</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>11179800</v>
+      </c>
+      <c r="D260" t="n">
+        <v>363</v>
+      </c>
+      <c r="E260" t="n">
+        <v>99</v>
+      </c>
+      <c r="F260" t="n">
+        <v>7</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>8721</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>686298200</v>
+      </c>
+      <c r="D261" t="n">
+        <v>210</v>
+      </c>
+      <c r="E261" t="n">
+        <v>97</v>
+      </c>
+      <c r="F261" t="n">
+        <v>8</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>8725</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>4253000</v>
+      </c>
+      <c r="D262" t="n">
+        <v>210</v>
+      </c>
+      <c r="E262" t="n">
+        <v>99</v>
+      </c>
+      <c r="F262" t="n">
+        <v>10</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>8727</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>88865320</v>
+      </c>
+      <c r="D263" t="n">
+        <v>210</v>
+      </c>
+      <c r="E263" t="n">
+        <v>80</v>
+      </c>
+      <c r="F263" t="n">
+        <v>10</v>
+      </c>
+      <c r="G263" t="n">
+        <v>3084141</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>8733</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="n">
+        <v>13683</v>
+      </c>
+      <c r="D264" t="n">
+        <v>63</v>
+      </c>
+      <c r="E264" t="n">
+        <v>97</v>
+      </c>
+      <c r="F264" t="n">
+        <v>33</v>
+      </c>
+      <c r="G264" t="n">
+        <v>38621188</v>
+      </c>
+      <c r="H264" t="n">
+        <v>30873</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>8739</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>12970000</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1258</v>
+      </c>
+      <c r="E265" t="n">
+        <v>100</v>
+      </c>
+      <c r="F265" t="n">
+        <v>4</v>
+      </c>
+      <c r="G265" t="n">
+        <v>41746630</v>
+      </c>
+      <c r="H265" t="n">
+        <v>16007</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>8742</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>255041</v>
+      </c>
+      <c r="D266" t="n">
+        <v>210</v>
+      </c>
+      <c r="E266" t="n">
+        <v>94</v>
+      </c>
+      <c r="F266" t="n">
+        <v>18</v>
+      </c>
+      <c r="G266" t="n">
+        <v>143586</v>
+      </c>
+      <c r="H266" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>8839</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D267" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E267" t="n">
+        <v>96</v>
+      </c>
+      <c r="F267" t="n">
+        <v>12</v>
+      </c>
+      <c r="G267" t="n">
+        <v>283138</v>
+      </c>
+      <c r="H267" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>9072</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>81318600</v>
+      </c>
+      <c r="D268" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="E268" t="n">
+        <v>100</v>
+      </c>
+      <c r="F268" t="n">
+        <v>5</v>
+      </c>
+      <c r="G268" t="n">
+        <v>448933</v>
+      </c>
+      <c r="H268" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>9164</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D269" t="n">
+        <v>11</v>
+      </c>
+      <c r="E269" t="n">
+        <v>45</v>
+      </c>
+      <c r="F269" t="n">
+        <v>23</v>
+      </c>
+      <c r="G269" t="n">
+        <v>188774</v>
+      </c>
+      <c r="H269" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>9254</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D270" t="n">
+        <v>23</v>
+      </c>
+      <c r="E270" t="n">
+        <v>96</v>
+      </c>
+      <c r="F270" t="n">
+        <v>45</v>
+      </c>
+      <c r="G270" t="n">
+        <v>229456</v>
+      </c>
+      <c r="H270" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>9290</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>645300000</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1321</v>
+      </c>
+      <c r="E271" t="n">
+        <v>87</v>
+      </c>
+      <c r="F271" t="n">
+        <v>15</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>9295</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2010000</v>
+      </c>
+      <c r="D272" t="n">
+        <v>85</v>
+      </c>
+      <c r="E272" t="n">
+        <v>96</v>
+      </c>
+      <c r="F272" t="n">
+        <v>90</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>9353</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="n">
+        <v>23970</v>
+      </c>
+      <c r="D273" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E273" t="n">
+        <v>96</v>
+      </c>
+      <c r="F273" t="n">
+        <v>65</v>
+      </c>
+      <c r="G273" t="n">
+        <v>4688283</v>
+      </c>
+      <c r="H273" t="n">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>9373</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2</v>
+      </c>
+      <c r="E274" t="n">
+        <v>96</v>
+      </c>
+      <c r="F274" t="n">
+        <v>33</v>
+      </c>
+      <c r="G274" t="n">
+        <v>882693</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>9423</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D275" t="n">
+        <v>170</v>
+      </c>
+      <c r="E275" t="n">
+        <v>96</v>
+      </c>
+      <c r="F275" t="n">
+        <v>28</v>
+      </c>
+      <c r="G275" t="n">
+        <v>29327462</v>
+      </c>
+      <c r="H275" t="n">
+        <v>9725</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>9492</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D276" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="E276" t="n">
+        <v>96</v>
+      </c>
+      <c r="F276" t="n">
+        <v>48</v>
+      </c>
+      <c r="G276" t="n">
+        <v>10322999</v>
+      </c>
+      <c r="H276" t="n">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>9559</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D277" t="n">
+        <v>5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>96</v>
+      </c>
+      <c r="F277" t="n">
+        <v>90</v>
+      </c>
+      <c r="G277" t="n">
+        <v>822602</v>
+      </c>
+      <c r="H277" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>9623</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D278" t="n">
+        <v>207</v>
+      </c>
+      <c r="E278" t="n">
+        <v>97</v>
+      </c>
+      <c r="F278" t="n">
+        <v>11</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1333019</v>
+      </c>
+      <c r="H278" t="n">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>9649</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D279" t="n">
+        <v>666</v>
+      </c>
+      <c r="E279" t="n">
+        <v>96</v>
+      </c>
+      <c r="F279" t="n">
+        <v>7</v>
+      </c>
+      <c r="G279" t="n">
+        <v>22680485</v>
+      </c>
+      <c r="H279" t="n">
+        <v>13768</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>9682</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" t="n">
+        <v>5010000</v>
+      </c>
+      <c r="D280" t="n">
+        <v>70</v>
+      </c>
+      <c r="E280" t="n">
+        <v>96</v>
+      </c>
+      <c r="F280" t="n">
+        <v>35</v>
+      </c>
+      <c r="G280" t="n">
+        <v>6961928</v>
+      </c>
+      <c r="H280" t="n">
+        <v>9940</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>9713</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D281" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E281" t="n">
+        <v>96</v>
+      </c>
+      <c r="F281" t="n">
+        <v>11</v>
+      </c>
+      <c r="G281" t="n">
+        <v>20166240</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>9764</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="D282" t="n">
+        <v>16</v>
+      </c>
+      <c r="E282" t="n">
+        <v>96</v>
+      </c>
+      <c r="F282" t="n">
+        <v>39</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>9773</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="D283" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E283" t="n">
+        <v>96</v>
+      </c>
+      <c r="F283" t="n">
+        <v>19</v>
+      </c>
+      <c r="G283" t="n">
+        <v>901789</v>
+      </c>
+      <c r="H283" t="n">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>9792</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C284" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D284" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E284" t="n">
+        <v>96</v>
+      </c>
+      <c r="F284" t="n">
+        <v>10</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>9852</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+      <c r="C285" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D285" t="n">
+        <v>240</v>
+      </c>
+      <c r="E285" t="n">
+        <v>98</v>
+      </c>
+      <c r="F285" t="n">
+        <v>4</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>9913</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D286" t="n">
+        <v>36</v>
+      </c>
+      <c r="E286" t="n">
+        <v>96</v>
+      </c>
+      <c r="F286" t="n">
+        <v>9</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>9954</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>5070673</v>
+      </c>
+      <c r="D287" t="n">
+        <v>425</v>
+      </c>
+      <c r="E287" t="n">
+        <v>95</v>
+      </c>
+      <c r="F287" t="n">
+        <v>7</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2830244</v>
+      </c>
+      <c r="H287" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>9958</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>210000</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1563</v>
+      </c>
+      <c r="E288" t="n">
+        <v>100</v>
+      </c>
+      <c r="F288" t="n">
+        <v>5</v>
+      </c>
+      <c r="G288" t="n">
+        <v>36840625</v>
+      </c>
+      <c r="H288" t="n">
+        <v>13470</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>9960</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+      <c r="C289" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E289" t="n">
+        <v>96</v>
+      </c>
+      <c r="F289" t="n">
+        <v>83</v>
+      </c>
+      <c r="G289" t="n">
+        <v>15079752</v>
+      </c>
+      <c r="H289" t="n">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>9966</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D290" t="n">
+        <v>161</v>
+      </c>
+      <c r="E290" t="n">
+        <v>96</v>
+      </c>
+      <c r="F290" t="n">
+        <v>48</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>9990</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>200000</v>
+      </c>
+      <c r="D291" t="n">
+        <v>4</v>
+      </c>
+      <c r="E291" t="n">
+        <v>96</v>
+      </c>
+      <c r="F291" t="n">
+        <v>14</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>10078</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D292" t="n">
+        <v>34</v>
+      </c>
+      <c r="E292" t="n">
+        <v>98</v>
+      </c>
+      <c r="F292" t="n">
+        <v>29</v>
+      </c>
+      <c r="G292" t="n">
+        <v>424187</v>
+      </c>
+      <c r="H292" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>10225</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D293" t="n">
+        <v>438</v>
+      </c>
+      <c r="E293" t="n">
+        <v>100</v>
+      </c>
+      <c r="F293" t="n">
+        <v>6</v>
+      </c>
+      <c r="G293" t="n">
+        <v>92629121</v>
+      </c>
+      <c r="H293" t="n">
+        <v>101392</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>10480</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1067639000</v>
+      </c>
+      <c r="D294" t="n">
+        <v>210</v>
+      </c>
+      <c r="E294" t="n">
+        <v>64</v>
+      </c>
+      <c r="F294" t="n">
+        <v>26</v>
+      </c>
+      <c r="G294" t="n">
+        <v>245628776</v>
+      </c>
+      <c r="H294" t="n">
+        <v>117178</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>10587</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>104658000</v>
+      </c>
+      <c r="D295" t="n">
+        <v>330</v>
+      </c>
+      <c r="E295" t="n">
+        <v>96</v>
+      </c>
+      <c r="F295" t="n">
+        <v>17</v>
+      </c>
+      <c r="G295" t="n">
+        <v>13353952</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>10591</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C296" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D296" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E296" t="n">
+        <v>96</v>
+      </c>
+      <c r="F296" t="n">
+        <v>11</v>
+      </c>
+      <c r="G296" t="n">
+        <v>11119478</v>
+      </c>
+      <c r="H296" t="n">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>10597</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>83668550</v>
+      </c>
+      <c r="D297" t="n">
+        <v>210</v>
+      </c>
+      <c r="E297" t="n">
+        <v>99</v>
+      </c>
+      <c r="F297" t="n">
+        <v>14</v>
+      </c>
+      <c r="G297" t="n">
+        <v>10344890</v>
+      </c>
+      <c r="H297" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>10610</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>4254290000</v>
+      </c>
+      <c r="D298" t="n">
+        <v>210</v>
+      </c>
+      <c r="E298" t="n">
+        <v>88</v>
+      </c>
+      <c r="F298" t="n">
+        <v>20</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>10611</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1435629</v>
+      </c>
+      <c r="D299" t="n">
+        <v>134</v>
+      </c>
+      <c r="E299" t="n">
+        <v>81</v>
+      </c>
+      <c r="F299" t="n">
+        <v>23</v>
+      </c>
+      <c r="G299" t="n">
+        <v>44539063</v>
+      </c>
+      <c r="H299" t="n">
+        <v>23359</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>10615</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>4077047</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1308</v>
+      </c>
+      <c r="E300" t="n">
+        <v>82</v>
+      </c>
+      <c r="F300" t="n">
+        <v>21</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>10622</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="D301" t="n">
+        <v>210</v>
+      </c>
+      <c r="E301" t="n">
+        <v>94</v>
+      </c>
+      <c r="F301" t="n">
+        <v>25</v>
+      </c>
+      <c r="G301" t="n">
+        <v>134502</v>
+      </c>
+      <c r="H301" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>10826</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+      <c r="C302" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E302" t="n">
+        <v>96</v>
+      </c>
+      <c r="F302" t="n">
+        <v>36</v>
+      </c>
+      <c r="G302" t="n">
+        <v>3940393</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>10864</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D303" t="n">
+        <v>516</v>
+      </c>
+      <c r="E303" t="n">
+        <v>96</v>
+      </c>
+      <c r="F303" t="n">
+        <v>9</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>10867</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+      <c r="C304" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D304" t="n">
+        <v>30</v>
+      </c>
+      <c r="E304" t="n">
+        <v>96</v>
+      </c>
+      <c r="F304" t="n">
+        <v>43</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>10870</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1198</v>
+      </c>
+      <c r="E305" t="n">
+        <v>100</v>
+      </c>
+      <c r="F305" t="n">
+        <v>11</v>
+      </c>
+      <c r="G305" t="n">
+        <v>14344658</v>
+      </c>
+      <c r="H305" t="n">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>10890</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>700000</v>
+      </c>
+      <c r="D306" t="n">
+        <v>3</v>
+      </c>
+      <c r="E306" t="n">
+        <v>96</v>
+      </c>
+      <c r="F306" t="n">
+        <v>75</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>10894</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+      <c r="C307" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D307" t="n">
+        <v>31</v>
+      </c>
+      <c r="E307" t="n">
+        <v>96</v>
+      </c>
+      <c r="F307" t="n">
+        <v>31</v>
+      </c>
+      <c r="G307" t="n">
+        <v>2507158</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>10896</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+      <c r="C308" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D308" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E308" t="n">
+        <v>96</v>
+      </c>
+      <c r="F308" t="n">
+        <v>52</v>
+      </c>
+      <c r="G308" t="n">
+        <v>8946399</v>
+      </c>
+      <c r="H308" t="n">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>10904</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+      <c r="C309" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D309" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E309" t="n">
+        <v>96</v>
+      </c>
+      <c r="F309" t="n">
+        <v>98</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>10908</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+      <c r="C310" t="n">
+        <v>12510000</v>
+      </c>
+      <c r="D310" t="n">
+        <v>105</v>
+      </c>
+      <c r="E310" t="n">
+        <v>96</v>
+      </c>
+      <c r="F310" t="n">
+        <v>34</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>10926</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+      <c r="C311" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D311" t="n">
+        <v>41</v>
+      </c>
+      <c r="E311" t="n">
+        <v>96</v>
+      </c>
+      <c r="F311" t="n">
+        <v>13</v>
+      </c>
+      <c r="G311" t="n">
+        <v>851616</v>
+      </c>
+      <c r="H311" t="n">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>10946</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+      <c r="C312" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D312" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E312" t="n">
+        <v>96</v>
+      </c>
+      <c r="F312" t="n">
+        <v>17</v>
+      </c>
+      <c r="G312" t="n">
+        <v>1282248</v>
+      </c>
+      <c r="H312" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>10987</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D313" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E313" t="n">
+        <v>96</v>
+      </c>
+      <c r="F313" t="n">
+        <v>11</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>10988</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+      <c r="C314" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D314" t="n">
+        <v>2</v>
+      </c>
+      <c r="E314" t="n">
+        <v>96</v>
+      </c>
+      <c r="F314" t="n">
+        <v>40</v>
+      </c>
+      <c r="G314" t="n">
+        <v>5044705</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>11009</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D315" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="E315" t="n">
+        <v>97</v>
+      </c>
+      <c r="F315" t="n">
+        <v>9</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>11089</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D316" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E316" t="n">
+        <v>96</v>
+      </c>
+      <c r="F316" t="n">
+        <v>28</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>11102</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D317" t="n">
+        <v>3515.5</v>
+      </c>
+      <c r="E317" t="n">
+        <v>98</v>
+      </c>
+      <c r="F317" t="n">
+        <v>11</v>
+      </c>
+      <c r="G317" t="n">
+        <v>249557450</v>
+      </c>
+      <c r="H317" t="n">
+        <v>116366</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>11158</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>5135000</v>
+      </c>
+      <c r="D318" t="n">
+        <v>210</v>
+      </c>
+      <c r="E318" t="n">
+        <v>96</v>
+      </c>
+      <c r="F318" t="n">
+        <v>11</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
